--- a/我的创作/股票/涨幅与最高收益合成表.xlsx
+++ b/我的创作/股票/涨幅与最高收益合成表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="4"/>
+    <workbookView windowWidth="26500" windowHeight="11360" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -7034,6 +7034,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">不宜入场
@@ -7060,6 +7061,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">不宜入场
@@ -7124,6 +7126,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">不宜入场
@@ -7144,6 +7147,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">不宜入场
@@ -7164,6 +7168,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">不宜入场
@@ -7187,6 +7192,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">不宜入场
@@ -7210,6 +7216,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">不宜入场
@@ -7230,6 +7237,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">不宜入场
@@ -7253,6 +7261,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">不宜入场
@@ -7284,6 +7293,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">不宜入场
@@ -7305,14 +7315,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7448,32 +7458,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7486,70 +7480,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7571,8 +7503,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7586,7 +7565,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7596,6 +7606,12 @@
       <sz val="12"/>
       <color theme="2" tint="-0.9"/>
       <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7661,7 +7677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7673,13 +7689,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7697,7 +7749,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7709,79 +7767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7799,7 +7791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7811,37 +7809,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7870,6 +7886,80 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -7893,203 +7983,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8098,22 +8114,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8130,7 +8146,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
@@ -8142,13 +8158,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8157,7 +8173,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8166,7 +8182,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8178,7 +8194,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8187,7 +8203,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8196,7 +8212,7 @@
     <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8208,7 +8224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8223,13 +8239,13 @@
     <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8244,7 +8260,7 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8256,10 +8272,10 @@
     <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8682,7 +8698,7 @@
   <sheetPr/>
   <dimension ref="A1:B1101"/>
   <sheetViews>
-    <sheetView topLeftCell="A1104" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="B801" sqref="B801"/>
     </sheetView>
   </sheetViews>
@@ -17514,7 +17530,7 @@
   <sheetPr/>
   <dimension ref="A1:B217"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -19203,7 +19219,7 @@
   <sheetPr/>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -19998,12 +20014,12 @@
   <sheetPr/>
   <dimension ref="A1:AO18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AF9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM13" sqref="AM13"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/我的创作/股票/涨幅与最高收益合成表.xlsx
+++ b/我的创作/股票/涨幅与最高收益合成表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="10980" activeTab="5"/>
+    <workbookView windowWidth="26500" windowHeight="12880" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059">
   <si>
     <t>股票代码</t>
   </si>
@@ -7085,11 +7085,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -7107,7 +7102,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>时间周期太短，不足以洞察未来趋势，应继续观察2</t>
+      <t>当前股价小于50日均线，应持续观察3w</t>
     </r>
     <r>
       <rPr>
@@ -7115,7 +7110,7 @@
         <rFont val="Helvetica Neue Regular"/>
         <charset val="134"/>
       </rPr>
-      <t>w)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -7213,6 +7208,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">不宜入场
 </t>
     </r>
@@ -7229,6 +7230,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>成交量行为和价格行为不明朗</t>
@@ -7245,6 +7247,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">不宜入场
 </t>
     </r>
@@ -7261,6 +7269,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>收缩幅度不够</t>
@@ -7278,6 +7287,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -7329,12 +7339,8 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>(收缩幅度不够，应多观察1w)</t>
+      <t>(当前股价低于50日均线，应观察2w)</t>
     </r>
-  </si>
-  <si>
-    <t>不宜入场
-(错过最佳入场时机，需继续观察寻找时机)</t>
   </si>
   <si>
     <t>可以入场</t>
@@ -7369,14 +7375,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7526,7 +7532,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7540,40 +7546,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7588,8 +7585,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7597,6 +7609,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7610,55 +7660,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7678,13 +7684,6 @@
       <sz val="10"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -7732,7 +7731,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7744,61 +7815,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7822,7 +7845,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7834,85 +7905,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7960,16 +7959,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7989,17 +7988,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -8015,6 +8003,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -8024,17 +8027,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8043,85 +8042,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8130,65 +8129,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8204,7 +8203,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
@@ -8216,13 +8215,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8231,7 +8230,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8240,8 +8239,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8249,11 +8251,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8261,7 +8260,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8270,7 +8269,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8279,7 +8278,7 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8291,7 +8290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8306,13 +8305,13 @@
     <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8324,28 +8323,31 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8360,7 +8362,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8372,7 +8374,7 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8396,17 +8398,17 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8421,6 +8423,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8788,10 +8793,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
     </row>
@@ -17615,16 +17620,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="14.5803571428571" style="85" customWidth="1"/>
-    <col min="2" max="2" width="14.4285714285714" style="85" customWidth="1"/>
+    <col min="1" max="1" width="14.5803571428571" style="87" customWidth="1"/>
+    <col min="2" max="2" width="14.4285714285714" style="87" customWidth="1"/>
     <col min="3" max="3" width="16.9553571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
     </row>
@@ -18949,10 +18954,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
     </row>
@@ -19165,10 +19170,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
     </row>
@@ -19312,19 +19317,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="36" spans="1:5">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="84" t="s">
         <v>1986</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="85" t="s">
         <v>1987</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="85" t="s">
         <v>1988</v>
       </c>
     </row>
@@ -20094,11 +20099,11 @@
   <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AF15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AL9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection pane="bottomRight" activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -20114,6 +20119,7 @@
     <col min="12" max="12" width="12.7857142857143" style="6"/>
     <col min="13" max="13" width="13.5357142857143" style="6" customWidth="1"/>
     <col min="14" max="14" width="14.4375" style="6" customWidth="1"/>
+    <col min="15" max="25" width="9.14285714285714" style="5"/>
     <col min="26" max="26" width="10.7053571428571" customWidth="1"/>
     <col min="27" max="27" width="12.7857142857143" style="6"/>
     <col min="28" max="32" width="9.14285714285714" style="6"/>
@@ -20180,13 +20186,13 @@
       </c>
       <c r="AK1" s="28"/>
       <c r="AL1" s="28"/>
-      <c r="AM1" s="64" t="s">
+      <c r="AM1" s="65" t="s">
         <v>1995</v>
       </c>
-      <c r="AN1" s="64" t="s">
+      <c r="AN1" s="65" t="s">
         <v>1996</v>
       </c>
-      <c r="AO1" s="64" t="s">
+      <c r="AO1" s="65" t="s">
         <v>1997</v>
       </c>
     </row>
@@ -20257,15 +20263,15 @@
       <c r="AJ2" s="29" t="s">
         <v>2012</v>
       </c>
-      <c r="AK2" s="65" t="s">
+      <c r="AK2" s="66" t="s">
         <v>2013</v>
       </c>
       <c r="AL2" s="29" t="s">
         <v>2014</v>
       </c>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
     </row>
     <row r="3" ht="29" spans="1:41">
       <c r="A3" s="7"/>
@@ -20315,25 +20321,25 @@
       <c r="Y3" s="50" t="s">
         <v>2025</v>
       </c>
-      <c r="Z3" s="54" t="s">
+      <c r="Z3" s="55" t="s">
         <v>2026</v>
       </c>
-      <c r="AA3" s="55" t="s">
+      <c r="AA3" s="56" t="s">
         <v>2027</v>
       </c>
-      <c r="AB3" s="55" t="s">
+      <c r="AB3" s="56" t="s">
         <v>2028</v>
       </c>
-      <c r="AC3" s="55" t="s">
+      <c r="AC3" s="56" t="s">
         <v>2029</v>
       </c>
-      <c r="AD3" s="55" t="s">
+      <c r="AD3" s="56" t="s">
         <v>2030</v>
       </c>
-      <c r="AE3" s="55" t="s">
+      <c r="AE3" s="56" t="s">
         <v>2031</v>
       </c>
-      <c r="AF3" s="55" t="s">
+      <c r="AF3" s="56" t="s">
         <v>2032</v>
       </c>
       <c r="AG3" s="29" t="s">
@@ -20344,9 +20350,9 @@
       <c r="AJ3" s="29"/>
       <c r="AK3" s="29"/>
       <c r="AL3" s="29"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="61" spans="1:41">
       <c r="A4" s="12" t="s">
@@ -20392,19 +20398,19 @@
         <f t="shared" ref="N4:N18" si="2">(J4-K4)/K4</f>
         <v>0.589270427090269</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="14">
         <v>113.22</v>
       </c>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
       <c r="Z4" s="32" t="s">
         <v>2034</v>
       </c>
@@ -20432,7 +20438,7 @@
       <c r="AI4" s="32" t="s">
         <v>1989</v>
       </c>
-      <c r="AJ4" s="63" t="s">
+      <c r="AJ4" s="64" t="s">
         <v>2036</v>
       </c>
       <c r="AK4" s="32" t="s">
@@ -20441,10 +20447,10 @@
       <c r="AL4" s="32" t="s">
         <v>1990</v>
       </c>
-      <c r="AM4" s="67" t="s">
+      <c r="AM4" s="68" t="s">
         <v>2037</v>
       </c>
-      <c r="AN4" s="68">
+      <c r="AN4" s="69">
         <v>44548</v>
       </c>
       <c r="AO4" s="32"/>
@@ -20493,27 +20499,27 @@
         <f t="shared" si="2"/>
         <v>1.32970451010886</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="14">
         <v>20.71</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="14">
         <v>27.4</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="Q5" s="14">
         <v>21.34</v>
       </c>
-      <c r="R5" s="32">
+      <c r="R5" s="14">
         <v>24.66</v>
       </c>
-      <c r="S5" s="32">
+      <c r="S5" s="14">
         <v>21.5</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
       <c r="Z5" s="32" t="s">
         <v>2038</v>
       </c>
@@ -20537,36 +20543,36 @@
       <c r="AJ5" s="32"/>
       <c r="AK5" s="32"/>
       <c r="AL5" s="32"/>
-      <c r="AM5" s="67" t="s">
+      <c r="AM5" s="68" t="s">
         <v>2040</v>
       </c>
-      <c r="AN5" s="68">
+      <c r="AN5" s="69">
         <v>44548</v>
       </c>
       <c r="AO5" s="33"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="52" spans="1:41">
-      <c r="A6" s="18" t="s">
+    <row r="6" s="1" customFormat="1" ht="40" spans="1:41">
+      <c r="A6" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="14">
         <v>1.38</v>
       </c>
-      <c r="D6" s="21">
-        <v>85.08</v>
-      </c>
-      <c r="E6" s="21">
-        <v>92.22</v>
-      </c>
-      <c r="F6" s="21">
-        <v>115.23</v>
-      </c>
-      <c r="G6" s="21"/>
+      <c r="D6" s="18">
+        <v>90.58</v>
+      </c>
+      <c r="E6" s="18">
+        <v>98.6</v>
+      </c>
+      <c r="F6" s="18">
+        <v>121.33</v>
+      </c>
+      <c r="G6" s="18"/>
       <c r="H6" s="34">
-        <v>136.1</v>
+        <v>113</v>
       </c>
       <c r="I6" s="34">
         <v>37.67</v>
@@ -20579,41 +20585,41 @@
       </c>
       <c r="L6" s="46">
         <f t="shared" si="0"/>
-        <v>2.6129546057871</v>
+        <v>1.99973453676666</v>
       </c>
       <c r="M6" s="46">
         <f t="shared" si="1"/>
-        <v>0.0709897610921502</v>
+        <v>0.228668941979522</v>
       </c>
       <c r="N6" s="51">
         <f t="shared" si="2"/>
         <v>0.591872215581875</v>
       </c>
-      <c r="O6" s="34">
-        <v>118.56</v>
-      </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
+      <c r="O6" s="52">
+        <v>111</v>
+      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
       <c r="Z6" s="34" t="s">
         <v>2041</v>
       </c>
       <c r="AA6" s="46">
         <f t="shared" si="3"/>
-        <v>0.190716723549488</v>
+        <v>0.242320819112628</v>
       </c>
       <c r="AB6" s="46" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC6" s="57" t="e">
+      <c r="AC6" s="58" t="e">
         <f>(R6-S6)/R6</f>
         <v>#DIV/0!</v>
       </c>
@@ -20628,13 +20634,13 @@
       <c r="AJ6" s="34"/>
       <c r="AK6" s="34"/>
       <c r="AL6" s="34"/>
-      <c r="AM6" s="69" t="s">
+      <c r="AM6" s="70" t="s">
         <v>2043</v>
       </c>
-      <c r="AN6" s="70">
+      <c r="AN6" s="69">
         <v>44548</v>
       </c>
-      <c r="AO6" s="35"/>
+      <c r="AO6" s="32"/>
     </row>
     <row r="7" ht="47" spans="1:41">
       <c r="A7" s="15" t="s">
@@ -20660,46 +20666,46 @@
       <c r="K7" s="17">
         <v>342.47</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="46">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="46">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N7" s="52">
+      <c r="N7" s="51">
         <f t="shared" si="2"/>
         <v>0.322101205945046</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="17">
         <v>342.18</v>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
       <c r="Z7" s="33" t="s">
         <v>2044</v>
       </c>
-      <c r="AA7" s="47">
+      <c r="AA7" s="46">
         <f t="shared" si="3"/>
         <v>0.244268739785326</v>
       </c>
-      <c r="AB7" s="47" t="e">
+      <c r="AB7" s="46" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
       <c r="AG7" s="33"/>
       <c r="AH7" s="33"/>
       <c r="AI7" s="33"/>
@@ -20709,83 +20715,83 @@
       <c r="AM7" s="71" t="s">
         <v>2045</v>
       </c>
-      <c r="AN7" s="68">
+      <c r="AN7" s="69">
         <v>44548</v>
       </c>
       <c r="AO7" s="33"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="61" spans="1:41">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="21">
         <v>1.27</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <v>31.67</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="21">
         <v>34.52</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="21">
         <v>46</v>
       </c>
       <c r="G8" s="35"/>
-      <c r="H8" s="20">
+      <c r="H8" s="21">
         <v>52</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="21">
         <v>15.01</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="21">
         <v>57.71</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="21">
         <v>26.45</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="47">
         <f t="shared" si="0"/>
         <v>2.46435709526982</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="47">
         <f t="shared" si="1"/>
         <v>0.0989429908161497</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="53">
         <f t="shared" si="2"/>
         <v>1.18185255198488</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="21">
         <v>44</v>
       </c>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
       <c r="Z8" s="35" t="s">
         <v>2044</v>
       </c>
-      <c r="AA8" s="46">
+      <c r="AA8" s="47">
         <f t="shared" si="3"/>
         <v>0.237567146075204</v>
       </c>
-      <c r="AB8" s="46" t="e">
+      <c r="AB8" s="47" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="58"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
       <c r="AG8" s="35"/>
       <c r="AH8" s="35"/>
       <c r="AI8" s="35"/>
@@ -20795,83 +20801,83 @@
       <c r="AM8" s="72" t="s">
         <v>2046</v>
       </c>
-      <c r="AN8" s="70">
+      <c r="AN8" s="73">
         <v>44553</v>
       </c>
       <c r="AO8" s="35"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="61" spans="1:41">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>910</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>911</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="21">
         <v>1.2</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="21">
         <v>34.27</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="21">
         <v>36.09</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="21">
         <v>44.17</v>
       </c>
       <c r="G9" s="35"/>
-      <c r="H9" s="20">
+      <c r="H9" s="21">
         <v>52</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="21">
         <v>22.62</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="21">
         <v>60.32</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="21">
         <v>26.4</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="47">
         <f t="shared" si="0"/>
         <v>1.29885057471264</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="47">
         <f t="shared" si="1"/>
         <v>0.137931034482759</v>
       </c>
-      <c r="N9" s="51">
+      <c r="N9" s="53">
         <f t="shared" si="2"/>
         <v>1.28484848484848</v>
       </c>
-      <c r="O9" s="35">
-        <v>50.9</v>
-      </c>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
+      <c r="O9" s="21">
+        <v>50.85</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
       <c r="Z9" s="35" t="s">
         <v>2041</v>
       </c>
-      <c r="AA9" s="46">
+      <c r="AA9" s="47">
         <f t="shared" si="3"/>
-        <v>0.156167108753316</v>
-      </c>
-      <c r="AB9" s="46" t="e">
+        <v>0.156996021220159</v>
+      </c>
+      <c r="AB9" s="47" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="59"/>
       <c r="AG9" s="35"/>
       <c r="AH9" s="35"/>
       <c r="AI9" s="35"/>
@@ -20881,7 +20887,7 @@
       <c r="AM9" s="72" t="s">
         <v>2047</v>
       </c>
-      <c r="AN9" s="70">
+      <c r="AN9" s="73">
         <v>44553</v>
       </c>
       <c r="AO9" s="35"/>
@@ -20918,44 +20924,44 @@
       <c r="K10" s="17">
         <v>50.29</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L10" s="46">
         <f t="shared" si="0"/>
         <v>1.78203639179249</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M10" s="46">
         <f t="shared" si="1"/>
         <v>0.0727741935483871</v>
       </c>
-      <c r="N10" s="52">
+      <c r="N10" s="51">
         <f t="shared" si="2"/>
         <v>0.541061841320342</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
       <c r="Z10" s="32" t="s">
         <v>2048</v>
       </c>
-      <c r="AA10" s="47">
+      <c r="AA10" s="46">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AB10" s="47" t="e">
+      <c r="AB10" s="46" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
       <c r="AG10" s="33"/>
       <c r="AH10" s="33"/>
       <c r="AI10" s="33"/>
@@ -20965,7 +20971,7 @@
       <c r="AM10" s="71" t="s">
         <v>2049</v>
       </c>
-      <c r="AN10" s="73">
+      <c r="AN10" s="74">
         <v>44553</v>
       </c>
       <c r="AO10" s="33"/>
@@ -21010,31 +21016,31 @@
         <f t="shared" si="1"/>
         <v>0.105075053609721</v>
       </c>
-      <c r="N11" s="53">
+      <c r="N11" s="54">
         <f t="shared" si="2"/>
         <v>0.598248286367098</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="24">
         <v>29.77</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="24">
         <v>41.18</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="24">
         <v>35.17</v>
       </c>
-      <c r="R11" s="36">
+      <c r="R11" s="24">
         <v>38.74</v>
       </c>
-      <c r="S11" s="36">
-        <v>35.91</v>
-      </c>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
+      <c r="S11" s="24">
+        <v>35.8</v>
+      </c>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
       <c r="Z11" s="36" t="s">
         <v>2050</v>
       </c>
@@ -21046,112 +21052,112 @@
         <f t="shared" si="4"/>
         <v>0.145944633317144</v>
       </c>
-      <c r="AC11" s="59">
+      <c r="AC11" s="60">
         <f>(R11-S11)/R11</f>
-        <v>0.0730511099638618</v>
-      </c>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="60"/>
+        <v>0.0758905524006196</v>
+      </c>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="61"/>
       <c r="AG11" s="36"/>
       <c r="AH11" s="36"/>
       <c r="AI11" s="36"/>
       <c r="AJ11" s="36"/>
       <c r="AK11" s="36"/>
       <c r="AL11" s="36"/>
-      <c r="AM11" s="74" t="s">
+      <c r="AM11" s="75" t="s">
         <v>2051</v>
       </c>
-      <c r="AN11" s="75">
+      <c r="AN11" s="76">
         <v>44553</v>
       </c>
       <c r="AO11" s="36"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="47" spans="1:41">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>967</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="21">
         <v>1.16</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="21">
         <v>36.74</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="21">
         <v>38.84</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="21">
         <v>47.25</v>
       </c>
       <c r="G12" s="35"/>
-      <c r="H12" s="20">
+      <c r="H12" s="21">
         <v>55.4</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="21">
         <v>19.46</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="21">
         <v>59.98</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="21">
         <v>36.8</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="47">
         <f t="shared" si="0"/>
         <v>1.84686536485098</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="47">
         <f t="shared" si="1"/>
         <v>0.0763587862620873</v>
       </c>
-      <c r="N12" s="51">
+      <c r="N12" s="53">
         <f t="shared" si="2"/>
         <v>0.629891304347826</v>
       </c>
-      <c r="O12" s="35">
+      <c r="O12" s="21">
         <v>51.3</v>
       </c>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
       <c r="Z12" s="35" t="s">
         <v>2048</v>
       </c>
-      <c r="AA12" s="46">
+      <c r="AA12" s="47">
         <f t="shared" si="3"/>
         <v>0.144714904968323</v>
       </c>
-      <c r="AB12" s="46" t="e">
+      <c r="AB12" s="47" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="57" t="e">
+      <c r="AC12" s="62" t="e">
         <f t="shared" ref="AC12:AC17" si="5">(R12-S12)/R12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
       <c r="AG12" s="35"/>
       <c r="AH12" s="35"/>
       <c r="AI12" s="35"/>
       <c r="AJ12" s="35"/>
       <c r="AK12" s="35"/>
       <c r="AL12" s="35"/>
-      <c r="AM12" s="76" t="s">
+      <c r="AM12" s="77" t="s">
         <v>2052</v>
       </c>
-      <c r="AN12" s="70">
+      <c r="AN12" s="73">
         <v>44553</v>
       </c>
       <c r="AO12" s="35"/>
@@ -21188,45 +21194,45 @@
       <c r="K13" s="17">
         <v>41.08</v>
       </c>
-      <c r="L13" s="47">
+      <c r="L13" s="46">
         <f t="shared" si="0"/>
         <v>1.04941577409932</v>
       </c>
-      <c r="M13" s="47">
+      <c r="M13" s="46">
         <f t="shared" si="1"/>
         <v>0.397782546494993</v>
       </c>
-      <c r="N13" s="52">
+      <c r="N13" s="51">
         <f t="shared" si="2"/>
         <v>2.4031158714703</v>
       </c>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
       <c r="Z13" s="33"/>
-      <c r="AA13" s="47">
+      <c r="AA13" s="46">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AB13" s="47" t="e">
+      <c r="AB13" s="46" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC13" s="61" t="e">
+      <c r="AC13" s="58" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
       <c r="AG13" s="33"/>
       <c r="AH13" s="33"/>
       <c r="AI13" s="33"/>
@@ -21236,7 +21242,7 @@
       <c r="AM13" s="71" t="s">
         <v>2053</v>
       </c>
-      <c r="AN13" s="73">
+      <c r="AN13" s="74">
         <v>44553</v>
       </c>
       <c r="AO13" s="33"/>
@@ -21267,153 +21273,143 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="47" t="e">
+      <c r="L14" s="46" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="47" t="e">
+      <c r="M14" s="46" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="52" t="e">
+      <c r="N14" s="51" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
       <c r="Z14" s="33"/>
-      <c r="AA14" s="47" t="e">
+      <c r="AA14" s="46" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB14" s="47" t="e">
+      <c r="AB14" s="46" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC14" s="61" t="e">
+      <c r="AC14" s="58" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
       <c r="AG14" s="33"/>
       <c r="AH14" s="33"/>
       <c r="AI14" s="33"/>
       <c r="AJ14" s="33"/>
       <c r="AK14" s="33"/>
       <c r="AL14" s="33"/>
-      <c r="AM14" s="77" t="s">
+      <c r="AM14" s="78" t="s">
         <v>2054</v>
       </c>
-      <c r="AN14" s="73">
+      <c r="AN14" s="74">
         <v>44553</v>
       </c>
       <c r="AO14" s="33"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="47" spans="1:41">
-      <c r="A15" s="18" t="s">
+    <row r="15" s="1" customFormat="1" ht="47" spans="1:41">
+      <c r="A15" s="12" t="s">
         <v>1012</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="13" t="s">
         <v>1013</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="14">
         <v>1.13</v>
       </c>
-      <c r="D15" s="20">
-        <v>60.54</v>
-      </c>
-      <c r="E15" s="20">
-        <v>64.94</v>
-      </c>
-      <c r="F15" s="20">
-        <v>78.95</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="20">
-        <v>83.91</v>
-      </c>
-      <c r="I15" s="20">
+      <c r="D15" s="14">
+        <v>61.51</v>
+      </c>
+      <c r="E15" s="14">
+        <v>65.93</v>
+      </c>
+      <c r="F15" s="14">
+        <v>79.18</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="14">
+        <v>76.93</v>
+      </c>
+      <c r="I15" s="14">
         <v>23.77</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="14">
         <v>101.88</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="14">
         <v>52.51</v>
       </c>
       <c r="L15" s="46">
         <f t="shared" si="0"/>
-        <v>2.53007993268826</v>
+        <v>2.23643247791334</v>
       </c>
       <c r="M15" s="46">
         <f t="shared" si="1"/>
-        <v>0.176383981154299</v>
+        <v>0.244895956026698</v>
       </c>
       <c r="N15" s="51">
         <f t="shared" si="2"/>
         <v>0.940201866311179</v>
       </c>
-      <c r="O15" s="35">
-        <v>82.5</v>
-      </c>
-      <c r="P15" s="35">
-        <v>94.42</v>
-      </c>
-      <c r="Q15" s="35">
-        <v>83.15</v>
-      </c>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35" t="s">
+      <c r="O15" s="14">
+        <v>76.05</v>
+      </c>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="32" t="s">
         <v>2041</v>
       </c>
       <c r="AA15" s="46">
         <f t="shared" si="3"/>
-        <v>0.190223792697291</v>
-      </c>
-      <c r="AB15" s="46">
-        <f t="shared" si="4"/>
-        <v>0.119360305020123</v>
-      </c>
-      <c r="AC15" s="57" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="76" t="s">
+        <v>0.253533568904594</v>
+      </c>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="79" t="s">
         <v>2055</v>
       </c>
-      <c r="AN15" s="70">
-        <v>44548</v>
-      </c>
-      <c r="AO15" s="35"/>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="71" spans="1:41">
+      <c r="AN15" s="69">
+        <v>44557</v>
+      </c>
+      <c r="AO15" s="32"/>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="18" spans="1:41">
       <c r="A16" s="22" t="s">
         <v>1054</v>
       </c>
@@ -21434,79 +21430,65 @@
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="24">
-        <v>45.5</v>
+        <v>43.12</v>
       </c>
       <c r="I16" s="24">
         <v>15.3</v>
       </c>
       <c r="J16" s="24">
-        <v>43</v>
+        <v>45.5</v>
       </c>
       <c r="K16" s="24">
-        <v>22.16</v>
+        <v>32.8</v>
       </c>
       <c r="L16" s="48">
         <f t="shared" si="0"/>
-        <v>1.97385620915033</v>
+        <v>1.81830065359477</v>
       </c>
       <c r="M16" s="48">
         <f t="shared" si="1"/>
-        <v>-0.0581395348837209</v>
-      </c>
-      <c r="N16" s="53">
+        <v>0.0523076923076924</v>
+      </c>
+      <c r="N16" s="54">
         <f t="shared" si="2"/>
-        <v>0.94043321299639</v>
-      </c>
-      <c r="O16" s="36">
-        <v>30</v>
-      </c>
-      <c r="P16" s="36">
-        <v>36.22</v>
-      </c>
-      <c r="Q16" s="36">
-        <v>32.11</v>
-      </c>
-      <c r="R16" s="36">
-        <v>40.08</v>
-      </c>
-      <c r="S16" s="36">
-        <v>37.46</v>
-      </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
+        <v>0.38719512195122</v>
+      </c>
+      <c r="O16" s="24">
+        <v>42.5</v>
+      </c>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
       <c r="Z16" s="36" t="s">
         <v>2048</v>
       </c>
       <c r="AA16" s="48">
-        <f t="shared" si="3"/>
-        <v>0.302325581395349</v>
-      </c>
-      <c r="AB16" s="48">
-        <f t="shared" si="4"/>
-        <v>0.113473219215903</v>
-      </c>
-      <c r="AC16" s="59">
-        <f t="shared" si="5"/>
-        <v>0.0653692614770458</v>
-      </c>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="60"/>
+        <f>(J16-O16)/J16</f>
+        <v>0.0659340659340659</v>
+      </c>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
       <c r="AG16" s="36"/>
       <c r="AH16" s="36"/>
       <c r="AI16" s="36"/>
       <c r="AJ16" s="36"/>
       <c r="AK16" s="36"/>
       <c r="AL16" s="36"/>
-      <c r="AM16" s="78" t="s">
+      <c r="AM16" s="80" t="s">
         <v>2056</v>
       </c>
-      <c r="AN16" s="75">
-        <v>44553</v>
+      <c r="AN16" s="76">
+        <v>44556</v>
       </c>
       <c r="AO16" s="36"/>
     </row>
@@ -21550,31 +21532,31 @@
         <f t="shared" si="1"/>
         <v>0.228788289509352</v>
       </c>
-      <c r="N17" s="53">
+      <c r="N17" s="54">
         <f t="shared" si="2"/>
         <v>0.426527455529776</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="27">
         <v>19.38</v>
       </c>
-      <c r="P17" s="37">
+      <c r="P17" s="27">
         <v>27.85</v>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="27">
         <v>23.93</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="27">
         <v>29.56</v>
       </c>
-      <c r="S17" s="37">
+      <c r="S17" s="27">
         <v>27.05</v>
       </c>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
       <c r="Z17" s="37" t="s">
         <v>2038</v>
       </c>
@@ -21586,23 +21568,23 @@
         <f t="shared" si="4"/>
         <v>0.140754039497307</v>
       </c>
-      <c r="AC17" s="59">
+      <c r="AC17" s="60">
         <f t="shared" si="5"/>
         <v>0.0849120433017591</v>
       </c>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="62"/>
-      <c r="AF17" s="62"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
       <c r="AG17" s="37"/>
       <c r="AH17" s="37"/>
       <c r="AI17" s="37"/>
       <c r="AJ17" s="37"/>
       <c r="AK17" s="37"/>
       <c r="AL17" s="37"/>
-      <c r="AM17" s="79" t="s">
-        <v>2057</v>
-      </c>
-      <c r="AN17" s="80">
+      <c r="AM17" s="81" t="s">
+        <v>2056</v>
+      </c>
+      <c r="AN17" s="82">
         <v>44553</v>
       </c>
       <c r="AO17" s="37"/>
@@ -21639,43 +21621,43 @@
       <c r="K18" s="17">
         <v>42.8</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="46">
         <f t="shared" si="0"/>
         <v>1.38448844884488</v>
       </c>
-      <c r="M18" s="47">
+      <c r="M18" s="46">
         <f t="shared" si="1"/>
         <v>0.225892857142857</v>
       </c>
-      <c r="N18" s="52">
+      <c r="N18" s="51">
         <f t="shared" si="2"/>
         <v>0.308411214953271</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O18" s="17">
         <v>41.04</v>
       </c>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
       <c r="Z18" s="33" t="s">
-        <v>2058</v>
-      </c>
-      <c r="AA18" s="47">
+        <v>2057</v>
+      </c>
+      <c r="AA18" s="46">
         <f t="shared" si="3"/>
         <v>0.267142857142857</v>
       </c>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
       <c r="AG18" s="33"/>
       <c r="AH18" s="33"/>
       <c r="AI18" s="33"/>
@@ -21683,9 +21665,9 @@
       <c r="AK18" s="33"/>
       <c r="AL18" s="33"/>
       <c r="AM18" s="71" t="s">
-        <v>2059</v>
-      </c>
-      <c r="AN18" s="73">
+        <v>2058</v>
+      </c>
+      <c r="AN18" s="74">
         <v>44553</v>
       </c>
       <c r="AO18" s="33"/>

--- a/我的创作/股票/涨幅与最高收益合成表.xlsx
+++ b/我的创作/股票/涨幅与最高收益合成表.xlsx
@@ -7085,6 +7085,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -7329,6 +7334,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">不宜入场
 </t>
     </r>
@@ -7375,12 +7386,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -7539,7 +7550,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7553,9 +7564,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7581,90 +7676,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7737,7 +7748,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7749,13 +7772,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7767,73 +7820,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7851,7 +7856,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7863,13 +7910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7881,37 +7922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7953,22 +7964,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8004,6 +8020,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -8017,119 +8048,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8138,43 +8149,43 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8203,7 +8214,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
@@ -8215,13 +8226,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8230,7 +8241,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8239,7 +8250,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8251,7 +8262,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8260,7 +8271,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8269,7 +8280,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8278,7 +8289,7 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8305,13 +8316,13 @@
     <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8323,7 +8334,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8335,16 +8346,16 @@
     <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -20099,11 +20110,11 @@
   <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AL9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM15" sqref="AM15"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -21470,7 +21481,7 @@
         <v>2048</v>
       </c>
       <c r="AA16" s="48">
-        <f>(J16-O16)/J16</f>
+        <f t="shared" si="3"/>
         <v>0.0659340659340659</v>
       </c>
       <c r="AB16" s="48"/>

--- a/我的创作/股票/涨幅与最高收益合成表.xlsx
+++ b/我的创作/股票/涨幅与最高收益合成表.xlsx
@@ -7387,11 +7387,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -7536,7 +7536,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7557,16 +7557,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7574,21 +7567,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7603,16 +7597,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7626,23 +7619,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7657,7 +7635,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7672,8 +7657,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7742,7 +7742,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7754,31 +7838,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7790,67 +7904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7863,60 +7917,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7954,37 +7954,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8005,6 +7991,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -8019,32 +8040,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8053,148 +8053,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -20110,11 +20110,11 @@
   <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AG5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -20133,7 +20133,9 @@
     <col min="15" max="25" width="9.14285714285714" style="5"/>
     <col min="26" max="26" width="10.7053571428571" customWidth="1"/>
     <col min="27" max="27" width="12.7857142857143" style="6"/>
-    <col min="28" max="32" width="9.14285714285714" style="6"/>
+    <col min="28" max="30" width="9.14285714285714" style="6"/>
+    <col min="31" max="31" width="9.42857142857143" style="6"/>
+    <col min="32" max="32" width="9.14285714285714" style="6"/>
     <col min="33" max="33" width="13.9821428571429" customWidth="1"/>
     <col min="34" max="34" width="15.625" customWidth="1"/>
     <col min="35" max="35" width="10.5535714285714" customWidth="1"/>
@@ -20838,7 +20840,7 @@
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="21">
-        <v>52</v>
+        <v>59.9</v>
       </c>
       <c r="I9" s="21">
         <v>22.62</v>
@@ -20851,11 +20853,11 @@
       </c>
       <c r="L9" s="47">
         <f t="shared" si="0"/>
-        <v>1.29885057471264</v>
+        <v>1.64809902740937</v>
       </c>
       <c r="M9" s="47">
         <f t="shared" si="1"/>
-        <v>0.137931034482759</v>
+        <v>0.00696286472148544</v>
       </c>
       <c r="N9" s="53">
         <f t="shared" si="2"/>
@@ -20864,8 +20866,12 @@
       <c r="O9" s="21">
         <v>50.85</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
+      <c r="P9" s="21">
+        <v>69.49</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>59.54</v>
+      </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
@@ -20881,9 +20887,9 @@
         <f t="shared" si="3"/>
         <v>0.156996021220159</v>
       </c>
-      <c r="AB9" s="47" t="e">
+      <c r="AB9" s="47">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.143186069938121</v>
       </c>
       <c r="AC9" s="59"/>
       <c r="AD9" s="59"/>
@@ -20899,7 +20905,7 @@
         <v>2047</v>
       </c>
       <c r="AN9" s="73">
-        <v>44553</v>
+        <v>44557</v>
       </c>
       <c r="AO9" s="35"/>
     </row>
@@ -21080,7 +21086,7 @@
         <v>2051</v>
       </c>
       <c r="AN11" s="76">
-        <v>44553</v>
+        <v>44557</v>
       </c>
       <c r="AO11" s="36"/>
     </row>
@@ -21129,7 +21135,7 @@
         <v>0.629891304347826</v>
       </c>
       <c r="O12" s="21">
-        <v>51.3</v>
+        <v>48.7</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -21146,7 +21152,7 @@
       </c>
       <c r="AA12" s="47">
         <f t="shared" si="3"/>
-        <v>0.144714904968323</v>
+        <v>0.188062687562521</v>
       </c>
       <c r="AB12" s="47" t="e">
         <f t="shared" si="4"/>
@@ -21169,94 +21175,118 @@
         <v>2052</v>
       </c>
       <c r="AN12" s="73">
-        <v>44553</v>
+        <v>44557</v>
       </c>
       <c r="AO12" s="35"/>
     </row>
-    <row r="13" ht="61" spans="1:41">
-      <c r="A13" s="15" t="s">
+    <row r="13" s="1" customFormat="1" ht="61" spans="1:41">
+      <c r="A13" s="12" t="s">
         <v>992</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>993</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="14">
         <v>1.15</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <v>71.83</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="14">
         <v>74.54</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="14">
         <v>78.35</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="17">
-        <v>84.19</v>
-      </c>
-      <c r="I13" s="17">
+      <c r="G13" s="32"/>
+      <c r="H13" s="14">
+        <v>92.41</v>
+      </c>
+      <c r="I13" s="14">
         <v>41.08</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="14">
         <v>139.8</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="14">
         <v>41.08</v>
       </c>
       <c r="L13" s="46">
         <f t="shared" si="0"/>
-        <v>1.04941577409932</v>
+        <v>1.24951314508277</v>
       </c>
       <c r="M13" s="46">
         <f t="shared" si="1"/>
-        <v>0.397782546494993</v>
+        <v>0.33898426323319</v>
       </c>
       <c r="N13" s="51">
         <f t="shared" si="2"/>
         <v>2.4031158714703</v>
       </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="33"/>
+      <c r="O13" s="14">
+        <v>62.02</v>
+      </c>
+      <c r="P13" s="14">
+        <v>83.63</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>63.61</v>
+      </c>
+      <c r="R13" s="14">
+        <v>86.97</v>
+      </c>
+      <c r="S13" s="14">
+        <v>64.6</v>
+      </c>
+      <c r="T13" s="14">
+        <v>80.84</v>
+      </c>
+      <c r="U13" s="14">
+        <v>72</v>
+      </c>
+      <c r="V13" s="14">
+        <v>89.13</v>
+      </c>
+      <c r="W13" s="14">
+        <v>81.1</v>
+      </c>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="32"/>
       <c r="AA13" s="46">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AB13" s="46" t="e">
+        <v>0.556366237482117</v>
+      </c>
+      <c r="AB13" s="46">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC13" s="58" t="e">
+        <v>0.239387779504962</v>
+      </c>
+      <c r="AC13" s="58">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="71" t="s">
+        <v>0.257215131654594</v>
+      </c>
+      <c r="AD13" s="44">
+        <f>(T13-U13)/T13</f>
+        <v>0.109351806036616</v>
+      </c>
+      <c r="AE13" s="44">
+        <f>(V13-W13)/V13</f>
+        <v>0.0900931224054752</v>
+      </c>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="68" t="s">
         <v>2053</v>
       </c>
-      <c r="AN13" s="74">
-        <v>44553</v>
-      </c>
-      <c r="AO13" s="33"/>
+      <c r="AN13" s="69">
+        <v>44557</v>
+      </c>
+      <c r="AO13" s="32"/>
     </row>
     <row r="14" ht="53" spans="1:41">
       <c r="A14" s="15" t="s">
@@ -21465,7 +21495,7 @@
         <v>0.38719512195122</v>
       </c>
       <c r="O16" s="24">
-        <v>42.5</v>
+        <v>42.1</v>
       </c>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -21482,7 +21512,7 @@
       </c>
       <c r="AA16" s="48">
         <f t="shared" si="3"/>
-        <v>0.0659340659340659</v>
+        <v>0.0747252747252747</v>
       </c>
       <c r="AB16" s="48"/>
       <c r="AC16" s="60"/>
@@ -21645,7 +21675,7 @@
         <v>0.308411214953271</v>
       </c>
       <c r="O18" s="17">
-        <v>41.04</v>
+        <v>39.6</v>
       </c>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
@@ -21662,7 +21692,7 @@
       </c>
       <c r="AA18" s="46">
         <f t="shared" si="3"/>
-        <v>0.267142857142857</v>
+        <v>0.292857142857143</v>
       </c>
       <c r="AB18" s="57"/>
       <c r="AC18" s="57"/>

--- a/我的创作/股票/涨幅与最高收益合成表.xlsx
+++ b/我的创作/股票/涨幅与最高收益合成表.xlsx
@@ -20147,7 +20147,8 @@
     <col min="5" max="5" width="10.8571428571429" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.1517857142857" style="6" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="6" customWidth="1"/>
-    <col min="9" max="11" width="8.33035714285714" style="6" customWidth="1"/>
+    <col min="9" max="10" width="8.33035714285714" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.7857142857143" style="7"/>
     <col min="13" max="13" width="13.5357142857143" style="7" customWidth="1"/>
     <col min="14" max="14" width="14.4375" style="7" customWidth="1"/>

--- a/我的创作/股票/涨幅与最高收益合成表.xlsx
+++ b/我的创作/股票/涨幅与最高收益合成表.xlsx
@@ -19983,11 +19983,11 @@
   <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AH14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN15" sqref="AN15"/>
+      <selection pane="bottomRight" activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/我的创作/股票/涨幅与最高收益合成表.xlsx
+++ b/我的创作/股票/涨幅与最高收益合成表.xlsx
@@ -7031,6 +7031,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">不宜入场
 </t>
     </r>
@@ -7047,6 +7053,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>当前股价小于50日均线，应观察5w</t>
@@ -7075,6 +7082,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>不宜入场</t>
     </r>
     <r>
@@ -7111,6 +7124,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">不宜入场
 </t>
     </r>
@@ -7127,6 +7146,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>当前股价小于50日均线，应观察</t>
@@ -7277,14 +7297,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7423,53 +7443,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7477,36 +7452,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7520,19 +7466,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7551,9 +7495,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7570,13 +7590,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7636,37 +7649,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7684,60 +7691,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7750,7 +7703,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7762,7 +7721,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7774,19 +7769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7798,19 +7787,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7841,78 +7854,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -7936,153 +7877,225 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8102,13 +8115,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8117,13 +8130,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8132,7 +8145,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8141,7 +8154,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8153,7 +8166,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8162,7 +8175,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8171,7 +8184,7 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8180,7 +8193,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8192,13 +8205,13 @@
     <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8225,10 +8238,10 @@
     <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8270,7 +8283,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8279,19 +8292,19 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8306,7 +8319,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19983,11 +19996,11 @@
   <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AI12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD17" sqref="AD17"/>
+      <selection pane="bottomRight" activeCell="AM16" sqref="AM16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
